--- a/CheckList Sprint1.xlsx
+++ b/CheckList Sprint1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Santiago González Izquierdo\Documentos\MINTIC\3. CICLO III\1. DESARROLLO DE SOFTWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Santiago González Izquierdo\Documentos\MINTIC\3. CICLO III\1. DESARROLLO DE SOFTWARE\ColombianDevs\ColombianDevs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Crear un equipo de trabajo y asignar los roles de cada uno de los integrantes según la metodología Scrum</t>
   </si>
@@ -803,8 +803,8 @@
   </sheetPr>
   <dimension ref="A1:U995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1016,7 +1016,9 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1041,7 +1043,9 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1093,7 +1097,9 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -5062,6 +5068,7 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
